--- a/data/pca/factorExposure/factorExposure_2010-06-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-06-29.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01585855491905252</v>
+        <v>-0.01633994095957473</v>
       </c>
       <c r="C2">
-        <v>-0.004992636940971038</v>
+        <v>0.0008216745378962113</v>
       </c>
       <c r="D2">
-        <v>0.01233145816732011</v>
+        <v>0.007832199190066679</v>
       </c>
       <c r="E2">
-        <v>0.01344359470570978</v>
+        <v>0.00182305641929056</v>
       </c>
       <c r="F2">
-        <v>-0.02676961172375961</v>
+        <v>-0.01287514505822628</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1214879429943163</v>
+        <v>-0.09499085833744163</v>
       </c>
       <c r="C4">
-        <v>-0.1015399382749622</v>
+        <v>0.0179950466470719</v>
       </c>
       <c r="D4">
-        <v>-0.004833317078425489</v>
+        <v>0.07997942949962172</v>
       </c>
       <c r="E4">
-        <v>-0.1490966090323743</v>
+        <v>-0.02822345269834867</v>
       </c>
       <c r="F4">
-        <v>-0.09200870976913872</v>
+        <v>0.04025749505544286</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1283540756761345</v>
+        <v>-0.1518727369443001</v>
       </c>
       <c r="C6">
-        <v>-0.06473699400454401</v>
+        <v>0.0243241779811634</v>
       </c>
       <c r="D6">
-        <v>-0.000525521580477995</v>
+        <v>-0.0225676743958788</v>
       </c>
       <c r="E6">
-        <v>-0.0710845241461632</v>
+        <v>-0.01211796866667195</v>
       </c>
       <c r="F6">
-        <v>-0.02734543503791454</v>
+        <v>0.0395822271743282</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.07685135749160098</v>
+        <v>-0.06270163383993947</v>
       </c>
       <c r="C7">
-        <v>-0.07971397142722954</v>
+        <v>0.0003859840871850556</v>
       </c>
       <c r="D7">
-        <v>0.01121685959149144</v>
+        <v>0.05243939858896839</v>
       </c>
       <c r="E7">
-        <v>-0.01197536822134897</v>
+        <v>-0.01278288375118744</v>
       </c>
       <c r="F7">
-        <v>0.005727804919389888</v>
+        <v>0.05762210356351936</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.04270054960071425</v>
+        <v>-0.05980709900421377</v>
       </c>
       <c r="C8">
-        <v>-0.01852009651137893</v>
+        <v>-0.01284205971309624</v>
       </c>
       <c r="D8">
-        <v>0.007929539487709102</v>
+        <v>0.02859530763407345</v>
       </c>
       <c r="E8">
-        <v>-0.07539546426784288</v>
+        <v>-0.01120758154555157</v>
       </c>
       <c r="F8">
-        <v>-0.0808141689796938</v>
+        <v>-0.02175912383684291</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.08636949417476217</v>
+        <v>-0.07244987083715784</v>
       </c>
       <c r="C9">
-        <v>-0.07472666190273694</v>
+        <v>0.01452897436775245</v>
       </c>
       <c r="D9">
-        <v>-0.02267426938164592</v>
+        <v>0.07795723154102324</v>
       </c>
       <c r="E9">
-        <v>-0.1172289146033446</v>
+        <v>-0.02090111315123514</v>
       </c>
       <c r="F9">
-        <v>-0.07547769750273937</v>
+        <v>0.06104579533071505</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.1341316246972657</v>
+        <v>-0.09171965155672714</v>
       </c>
       <c r="C10">
-        <v>0.1809131801000519</v>
+        <v>0.01338909257180748</v>
       </c>
       <c r="D10">
-        <v>0.002078546399654995</v>
+        <v>-0.1732849896340032</v>
       </c>
       <c r="E10">
-        <v>0.02487728830349757</v>
+        <v>0.03441355676271038</v>
       </c>
       <c r="F10">
-        <v>0.03330954979636474</v>
+        <v>-0.04964385535137405</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.06797473610725771</v>
+        <v>-0.08858731346195715</v>
       </c>
       <c r="C11">
-        <v>-0.06188294115064521</v>
+        <v>0.01379186619320883</v>
       </c>
       <c r="D11">
-        <v>-0.04704691106382002</v>
+        <v>0.1101003601100706</v>
       </c>
       <c r="E11">
-        <v>-0.08359083575479165</v>
+        <v>-0.04080304396436524</v>
       </c>
       <c r="F11">
-        <v>-0.05412322606215517</v>
+        <v>0.02673959685302784</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.07515797117867461</v>
+        <v>-0.09390422224211872</v>
       </c>
       <c r="C12">
-        <v>-0.07173063464727143</v>
+        <v>0.01143655586574688</v>
       </c>
       <c r="D12">
-        <v>-0.05486843385252969</v>
+        <v>0.1169653781618654</v>
       </c>
       <c r="E12">
-        <v>-0.1141130827691025</v>
+        <v>-0.0394362813839371</v>
       </c>
       <c r="F12">
-        <v>-0.0219769965322378</v>
+        <v>0.02879751657814477</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04387327702384115</v>
+        <v>-0.04452452929356818</v>
       </c>
       <c r="C13">
-        <v>-0.03908955572673861</v>
+        <v>0.004895237060733194</v>
       </c>
       <c r="D13">
-        <v>0.02543414825999658</v>
+        <v>0.04314803508657342</v>
       </c>
       <c r="E13">
-        <v>-0.03685316183351683</v>
+        <v>0.01357914442551069</v>
       </c>
       <c r="F13">
-        <v>-0.02871749655877815</v>
+        <v>0.02038351573051457</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.04173395870635684</v>
+        <v>-0.02227961774167044</v>
       </c>
       <c r="C14">
-        <v>-0.03783680740774392</v>
+        <v>0.01509064375616274</v>
       </c>
       <c r="D14">
-        <v>-0.01169159176028354</v>
+        <v>0.03003240048278025</v>
       </c>
       <c r="E14">
-        <v>-0.04986836056408802</v>
+        <v>-0.01520943997529388</v>
       </c>
       <c r="F14">
-        <v>-0.03543392984216007</v>
+        <v>0.02708328459954552</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.02495420047880768</v>
+        <v>-0.03255128270883943</v>
       </c>
       <c r="C15">
-        <v>-0.01801908803864405</v>
+        <v>0.006271389882697586</v>
       </c>
       <c r="D15">
-        <v>0.07020722717163719</v>
+        <v>0.04083272374023002</v>
       </c>
       <c r="E15">
-        <v>-0.007143804870049526</v>
+        <v>-0.007373939858353292</v>
       </c>
       <c r="F15">
-        <v>-0.04031888325077534</v>
+        <v>0.03435778107405751</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08063870826371985</v>
+        <v>-0.07571408462202461</v>
       </c>
       <c r="C16">
-        <v>-0.07715641031258312</v>
+        <v>0.005339069875204837</v>
       </c>
       <c r="D16">
-        <v>-0.04293824514663007</v>
+        <v>0.1144853258057487</v>
       </c>
       <c r="E16">
-        <v>-0.09203978427192859</v>
+        <v>-0.05678341017500237</v>
       </c>
       <c r="F16">
-        <v>-0.02464201133696561</v>
+        <v>0.03533105699671248</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.01743981087259036</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-0.004007476907319966</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>0.02166284866081231</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01060929016622919</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>-0.02535463828510335</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.046324429641997</v>
+        <v>-0.06117323406464583</v>
       </c>
       <c r="C20">
-        <v>-0.0233692359919313</v>
+        <v>0.002969599912428707</v>
       </c>
       <c r="D20">
-        <v>0.03135026409815923</v>
+        <v>0.0685248928169362</v>
       </c>
       <c r="E20">
-        <v>-0.07822875475665789</v>
+        <v>-0.04961469299410304</v>
       </c>
       <c r="F20">
-        <v>-0.01662590008754625</v>
+        <v>0.03154462489867606</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03720414992835418</v>
+        <v>-0.03810177648473834</v>
       </c>
       <c r="C21">
-        <v>-0.0263744923473494</v>
+        <v>0.00822407363248033</v>
       </c>
       <c r="D21">
-        <v>-0.02436184235671606</v>
+        <v>0.03407485415994855</v>
       </c>
       <c r="E21">
-        <v>-0.06304415580718943</v>
+        <v>0.01252512672495127</v>
       </c>
       <c r="F21">
-        <v>-0.0356718653937703</v>
+        <v>-0.01811971199007253</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.05861106782493069</v>
+        <v>-0.04267744338265107</v>
       </c>
       <c r="C22">
-        <v>-0.001107133828566802</v>
+        <v>0.0009087931681638167</v>
       </c>
       <c r="D22">
-        <v>0.6490592910326448</v>
+        <v>-0.001622821166266863</v>
       </c>
       <c r="E22">
-        <v>-0.04900880876606958</v>
+        <v>-0.03394913992007872</v>
       </c>
       <c r="F22">
-        <v>0.1035446000862774</v>
+        <v>-0.02277773489098162</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0591660854143434</v>
+        <v>-0.04271570190635265</v>
       </c>
       <c r="C23">
-        <v>-0.002331042444366901</v>
+        <v>0.0009322984938138473</v>
       </c>
       <c r="D23">
-        <v>0.6512160016798969</v>
+        <v>-0.00145220686970344</v>
       </c>
       <c r="E23">
-        <v>-0.05350116857017791</v>
+        <v>-0.03431133944182067</v>
       </c>
       <c r="F23">
-        <v>0.1013541612252154</v>
+        <v>-0.02221235621549914</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.07766299388539044</v>
+        <v>-0.08193155957308078</v>
       </c>
       <c r="C24">
-        <v>-0.07199335111792164</v>
+        <v>0.005471660973523936</v>
       </c>
       <c r="D24">
-        <v>-0.03552508407327117</v>
+        <v>0.1151539538837833</v>
       </c>
       <c r="E24">
-        <v>-0.09044687457875371</v>
+        <v>-0.04477257443880442</v>
       </c>
       <c r="F24">
-        <v>-0.0315672805135061</v>
+        <v>0.02771607390622969</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.07717469774914841</v>
+        <v>-0.0863029946009283</v>
       </c>
       <c r="C25">
-        <v>-0.05709380907527609</v>
+        <v>0.007694777962034429</v>
       </c>
       <c r="D25">
-        <v>-0.05968222190981221</v>
+        <v>0.1003647872837357</v>
       </c>
       <c r="E25">
-        <v>-0.09821512186640928</v>
+        <v>-0.02627831903807957</v>
       </c>
       <c r="F25">
-        <v>-0.03436740068941597</v>
+        <v>0.0366327395326717</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04388507311109907</v>
+        <v>-0.05661820126578185</v>
       </c>
       <c r="C26">
-        <v>-0.01528620050218015</v>
+        <v>0.01543713935224738</v>
       </c>
       <c r="D26">
-        <v>0.01489822116642286</v>
+        <v>0.03163219204488089</v>
       </c>
       <c r="E26">
-        <v>-0.09075818360129032</v>
+        <v>-0.0239491961604515</v>
       </c>
       <c r="F26">
-        <v>0.02701921318384917</v>
+        <v>-0.0001783165040646397</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1528523291617751</v>
+        <v>-0.1379867957783093</v>
       </c>
       <c r="C28">
-        <v>0.272599469116497</v>
+        <v>0.01054087332691044</v>
       </c>
       <c r="D28">
-        <v>-0.01865288019177018</v>
+        <v>-0.2737949591719612</v>
       </c>
       <c r="E28">
-        <v>-0.02537319457855167</v>
+        <v>0.06579431738513974</v>
       </c>
       <c r="F28">
-        <v>-0.01227311056097003</v>
+        <v>0.04363216199300485</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.04005926551981489</v>
+        <v>-0.02721435813426198</v>
       </c>
       <c r="C29">
-        <v>-0.03386820559244489</v>
+        <v>0.009257456623518213</v>
       </c>
       <c r="D29">
-        <v>-0.01608909125272501</v>
+        <v>0.02846121245962766</v>
       </c>
       <c r="E29">
-        <v>-0.05471580628753572</v>
+        <v>-0.007934411876424069</v>
       </c>
       <c r="F29">
-        <v>-0.03228976266025863</v>
+        <v>-0.006405488509249841</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.08328816530735762</v>
+        <v>-0.06463194254178527</v>
       </c>
       <c r="C30">
-        <v>-0.06613914176515602</v>
+        <v>0.007725775292763391</v>
       </c>
       <c r="D30">
-        <v>-0.01885908686303442</v>
+        <v>0.07602583846900239</v>
       </c>
       <c r="E30">
-        <v>-0.2786624785508773</v>
+        <v>-0.02027762166052928</v>
       </c>
       <c r="F30">
-        <v>0.04291557257656961</v>
+        <v>0.1213831825230471</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.02914737036147755</v>
+        <v>-0.04849469220500392</v>
       </c>
       <c r="C31">
-        <v>-0.05848203838929941</v>
+        <v>0.01527797349579304</v>
       </c>
       <c r="D31">
-        <v>0.003370488372074088</v>
+        <v>0.02863597573597068</v>
       </c>
       <c r="E31">
-        <v>-0.03345863261536022</v>
+        <v>-0.02635804855280012</v>
       </c>
       <c r="F31">
-        <v>-0.02717710626402865</v>
+        <v>-0.002172630607146628</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04910119996302199</v>
+        <v>-0.04853553856938399</v>
       </c>
       <c r="C32">
-        <v>-0.01117507507913916</v>
+        <v>0.001156409683921693</v>
       </c>
       <c r="D32">
-        <v>-0.04699071529154766</v>
+        <v>0.02605254285380134</v>
       </c>
       <c r="E32">
-        <v>-0.004266038779747606</v>
+        <v>-0.02443315501730599</v>
       </c>
       <c r="F32">
-        <v>-0.1040528435765221</v>
+        <v>0.005115176639669913</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09575634549182561</v>
+        <v>-0.09172958473852315</v>
       </c>
       <c r="C33">
-        <v>-0.07345694284341647</v>
+        <v>0.01066738579714731</v>
       </c>
       <c r="D33">
-        <v>-0.02163692946484714</v>
+        <v>0.08963024679130545</v>
       </c>
       <c r="E33">
-        <v>-0.0629886245857985</v>
+        <v>-0.04305613090945406</v>
       </c>
       <c r="F33">
-        <v>-0.005860931884852507</v>
+        <v>0.04269225895930026</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06624521951894508</v>
+        <v>-0.06899601986177098</v>
       </c>
       <c r="C34">
-        <v>-0.04942341912398278</v>
+        <v>0.01332171564741094</v>
       </c>
       <c r="D34">
-        <v>-0.04617761111874535</v>
+        <v>0.09394846175186623</v>
       </c>
       <c r="E34">
-        <v>-0.0782163265954037</v>
+        <v>-0.02720154021123257</v>
       </c>
       <c r="F34">
-        <v>-0.0371063131705303</v>
+        <v>0.05208290195826977</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01798259879049795</v>
+        <v>-0.02425342626166797</v>
       </c>
       <c r="C35">
-        <v>-0.01721612724624042</v>
+        <v>0.00279486663138426</v>
       </c>
       <c r="D35">
-        <v>-0.0006693895449278499</v>
+        <v>0.01036568273442531</v>
       </c>
       <c r="E35">
-        <v>-0.03171201134543504</v>
+        <v>-0.01174111940819861</v>
       </c>
       <c r="F35">
-        <v>-0.01361583910239176</v>
+        <v>0.01215770555886388</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02847845516987955</v>
+        <v>-0.02623611558940271</v>
       </c>
       <c r="C36">
-        <v>-0.02149854378095579</v>
+        <v>0.007072912309808754</v>
       </c>
       <c r="D36">
-        <v>0.01432253611946281</v>
+        <v>0.03815148935791585</v>
       </c>
       <c r="E36">
-        <v>-0.0856977664633162</v>
+        <v>-0.0161260823104274</v>
       </c>
       <c r="F36">
-        <v>-0.02022417995507444</v>
+        <v>0.01385802936003676</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.02379384275373944</v>
+        <v>-0.003044614709201259</v>
       </c>
       <c r="C38">
-        <v>-0.0503879744344006</v>
+        <v>0.0005703250389649123</v>
       </c>
       <c r="D38">
-        <v>0.02794149005751144</v>
+        <v>0.00329124856427462</v>
       </c>
       <c r="E38">
-        <v>0.07737509846472264</v>
+        <v>-0.004254523698320409</v>
       </c>
       <c r="F38">
-        <v>0.1075044378410041</v>
+        <v>-0.003232154281390409</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.09936815154046938</v>
+        <v>-0.1118865271700991</v>
       </c>
       <c r="C39">
-        <v>-0.08693436717007845</v>
+        <v>0.01958169173805516</v>
       </c>
       <c r="D39">
-        <v>-0.1314846810233717</v>
+        <v>0.14674400996746</v>
       </c>
       <c r="E39">
-        <v>-0.1668141010982636</v>
+        <v>-0.04925069582919298</v>
       </c>
       <c r="F39">
-        <v>0.0640058424757652</v>
+        <v>0.03871286809440765</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.02828815859441882</v>
+        <v>-0.03712809797759133</v>
       </c>
       <c r="C40">
-        <v>-0.06065985078570743</v>
+        <v>0.007771012011639152</v>
       </c>
       <c r="D40">
-        <v>0.02482091370183051</v>
+        <v>0.02788750923246566</v>
       </c>
       <c r="E40">
-        <v>-0.03840527843588094</v>
+        <v>-0.002071965656896416</v>
       </c>
       <c r="F40">
-        <v>-0.08789498649860399</v>
+        <v>-0.01721224899104735</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.03396211770224359</v>
+        <v>-0.02641379246990054</v>
       </c>
       <c r="C41">
-        <v>-0.02424040231831517</v>
+        <v>0.006758631765839239</v>
       </c>
       <c r="D41">
-        <v>-0.01972112713876902</v>
+        <v>0.01171145511562735</v>
       </c>
       <c r="E41">
-        <v>-0.009099229644885081</v>
+        <v>-0.01085880978112377</v>
       </c>
       <c r="F41">
-        <v>0.02315730262003994</v>
+        <v>-0.01217115182698101</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04818960132042411</v>
+        <v>-0.04327547926977221</v>
       </c>
       <c r="C43">
-        <v>-0.05034113935351117</v>
+        <v>0.007146983261115881</v>
       </c>
       <c r="D43">
-        <v>0.01054169621746156</v>
+        <v>0.02236337194711305</v>
       </c>
       <c r="E43">
-        <v>-0.03479908745478305</v>
+        <v>-0.02593040999786604</v>
       </c>
       <c r="F43">
-        <v>0.0437304412015777</v>
+        <v>-0.01117079632273271</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.09606887125422686</v>
+        <v>-0.07367217156762997</v>
       </c>
       <c r="C44">
-        <v>-0.08041496868895638</v>
+        <v>0.02400047232788946</v>
       </c>
       <c r="D44">
-        <v>0.07341155799685163</v>
+        <v>0.09947555847697125</v>
       </c>
       <c r="E44">
-        <v>-0.08574577526281585</v>
+        <v>-0.06439777746636834</v>
       </c>
       <c r="F44">
-        <v>-0.06669069331775455</v>
+        <v>0.1787397186029992</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.03825256335403086</v>
+        <v>-0.02391562287656322</v>
       </c>
       <c r="C46">
-        <v>-0.03911695008940295</v>
+        <v>0.004234176109019231</v>
       </c>
       <c r="D46">
-        <v>0.04262275663931513</v>
+        <v>0.01192098086659578</v>
       </c>
       <c r="E46">
-        <v>-0.02634936237966307</v>
+        <v>-0.02247476593739598</v>
       </c>
       <c r="F46">
-        <v>-0.05210773030469163</v>
+        <v>-0.002312571461548614</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05447262315655335</v>
+        <v>-0.05292120357997981</v>
       </c>
       <c r="C47">
-        <v>-0.04562946663900143</v>
+        <v>0.00335471732342636</v>
       </c>
       <c r="D47">
-        <v>-0.001557649845213744</v>
+        <v>0.01287072827212649</v>
       </c>
       <c r="E47">
-        <v>-0.02426615396895531</v>
+        <v>-0.0226077074798355</v>
       </c>
       <c r="F47">
-        <v>0.01186878111192588</v>
+        <v>-0.0467225952247966</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04704909712710448</v>
+        <v>-0.04818126832567813</v>
       </c>
       <c r="C48">
-        <v>-0.01878171913243139</v>
+        <v>0.003339571126838014</v>
       </c>
       <c r="D48">
-        <v>-0.0133461757705841</v>
+        <v>0.04441568079853517</v>
       </c>
       <c r="E48">
-        <v>-0.08268176398675835</v>
+        <v>0.008846609266084896</v>
       </c>
       <c r="F48">
-        <v>-0.066411660951203</v>
+        <v>0.01865372674507449</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2360215592179176</v>
+        <v>-0.2068497899714065</v>
       </c>
       <c r="C49">
-        <v>-0.04914581055149588</v>
+        <v>0.01685245350684146</v>
       </c>
       <c r="D49">
-        <v>-0.02536037498127159</v>
+        <v>-0.004633441640376528</v>
       </c>
       <c r="E49">
-        <v>0.2818899620228751</v>
+        <v>-0.04145638409502602</v>
       </c>
       <c r="F49">
-        <v>0.1053510940008413</v>
+        <v>0.03448688403001278</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.03688712048345502</v>
+        <v>-0.04875586754765846</v>
       </c>
       <c r="C50">
-        <v>-0.05105600401062513</v>
+        <v>0.01146124829918257</v>
       </c>
       <c r="D50">
-        <v>-0.01187979801678786</v>
+        <v>0.02678380706177471</v>
       </c>
       <c r="E50">
-        <v>-0.06716535242236897</v>
+        <v>-0.02844127908167924</v>
       </c>
       <c r="F50">
-        <v>0.002505057211197591</v>
+        <v>0.00708992080586372</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.02929461461355103</v>
+        <v>-0.003508008408549432</v>
       </c>
       <c r="C51">
-        <v>-0.002356706988989765</v>
+        <v>0.0008245154169360546</v>
       </c>
       <c r="D51">
-        <v>-0.001044120052095193</v>
+        <v>-0.001457393568140788</v>
       </c>
       <c r="E51">
-        <v>0.05307568620250354</v>
+        <v>-0.001591674264382894</v>
       </c>
       <c r="F51">
-        <v>0.007488165330027106</v>
+        <v>0.004400520091021302</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.02907561961310986</v>
+        <v>-0.1410746592395069</v>
       </c>
       <c r="C52">
-        <v>-0.01009181584687518</v>
+        <v>0.01253715397920498</v>
       </c>
       <c r="D52">
-        <v>-0.02129929915848261</v>
+        <v>0.04959774202579399</v>
       </c>
       <c r="E52">
-        <v>-0.005573826131446504</v>
+        <v>-0.01513461989061858</v>
       </c>
       <c r="F52">
-        <v>0.02529559497353704</v>
+        <v>0.03123133511739045</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1459835922923965</v>
+        <v>-0.1728420090992956</v>
       </c>
       <c r="C53">
-        <v>-0.05383008136413036</v>
+        <v>0.01526843621912016</v>
       </c>
       <c r="D53">
-        <v>0.02170222452915545</v>
+        <v>0.01591083974926512</v>
       </c>
       <c r="E53">
-        <v>0.05222920165664822</v>
+        <v>-0.03824999567311552</v>
       </c>
       <c r="F53">
-        <v>0.1035201195701004</v>
+        <v>0.05979328580707474</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.06239557431360939</v>
+        <v>-0.02221013503645839</v>
       </c>
       <c r="C54">
-        <v>-0.04167812046340546</v>
+        <v>0.01319870589561063</v>
       </c>
       <c r="D54">
-        <v>8.382769272544441e-05</v>
+        <v>0.02894417672043995</v>
       </c>
       <c r="E54">
-        <v>-0.1199203481062351</v>
+        <v>-0.01566900226558395</v>
       </c>
       <c r="F54">
-        <v>-0.0852962051864852</v>
+        <v>-0.0001708250660583349</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08290636589707531</v>
+        <v>-0.1144881340584563</v>
       </c>
       <c r="C55">
-        <v>-0.05347601102594267</v>
+        <v>0.01434732991140557</v>
       </c>
       <c r="D55">
-        <v>-0.03128223765864434</v>
+        <v>0.01561972139536399</v>
       </c>
       <c r="E55">
-        <v>0.01542296677773169</v>
+        <v>-0.0299562823705113</v>
       </c>
       <c r="F55">
-        <v>0.02954697841016696</v>
+        <v>0.04707606251817052</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1392222790945243</v>
+        <v>-0.1775961488715808</v>
       </c>
       <c r="C56">
-        <v>-0.0922127516858639</v>
+        <v>0.01288180196408162</v>
       </c>
       <c r="D56">
-        <v>-0.01435482566919826</v>
+        <v>0.01246599837670433</v>
       </c>
       <c r="E56">
-        <v>0.02829789328983045</v>
+        <v>-0.04227278631570743</v>
       </c>
       <c r="F56">
-        <v>0.07003639744995414</v>
+        <v>0.02987745841957095</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.02983885165621497</v>
+        <v>-0.0470718266700719</v>
       </c>
       <c r="C58">
-        <v>-0.03550188500021006</v>
+        <v>0.003533497889543062</v>
       </c>
       <c r="D58">
-        <v>0.03052137677728381</v>
+        <v>0.06310468469508081</v>
       </c>
       <c r="E58">
-        <v>-0.04508443499409009</v>
+        <v>-0.01434538239128078</v>
       </c>
       <c r="F58">
-        <v>0.008283288274856368</v>
+        <v>-0.04304214634025882</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.2124677855117067</v>
+        <v>-0.1700011253257027</v>
       </c>
       <c r="C59">
-        <v>0.2387325091953658</v>
+        <v>0.01236039452694752</v>
       </c>
       <c r="D59">
-        <v>-0.05772810404333293</v>
+        <v>-0.2312353916122126</v>
       </c>
       <c r="E59">
-        <v>0.02778912118427799</v>
+        <v>0.04701005322720064</v>
       </c>
       <c r="F59">
-        <v>-0.03288016007761517</v>
+        <v>-0.03121030180223317</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2330310650520615</v>
+        <v>-0.2398170822768903</v>
       </c>
       <c r="C60">
-        <v>-0.1400329940754988</v>
+        <v>-0.004399714085091087</v>
       </c>
       <c r="D60">
-        <v>-0.07331421936119376</v>
+        <v>0.0529121130279871</v>
       </c>
       <c r="E60">
-        <v>0.1123779221587718</v>
+        <v>-0.01108075258989344</v>
       </c>
       <c r="F60">
-        <v>0.01930277135304579</v>
+        <v>-0.04276333093410425</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09426725902688596</v>
+        <v>-0.08569690121900148</v>
       </c>
       <c r="C61">
-        <v>-0.06823009884651769</v>
+        <v>0.0149890306969567</v>
       </c>
       <c r="D61">
-        <v>-0.07658045835454277</v>
+        <v>0.1066686331888171</v>
       </c>
       <c r="E61">
-        <v>-0.1379605660753632</v>
+        <v>-0.03352699067188143</v>
       </c>
       <c r="F61">
-        <v>-0.0004118190446777363</v>
+        <v>0.02543803612380565</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1288258545329701</v>
+        <v>-0.1686941700981366</v>
       </c>
       <c r="C62">
-        <v>-0.06889127679125781</v>
+        <v>0.01697425331834447</v>
       </c>
       <c r="D62">
-        <v>0.006908873781851439</v>
+        <v>0.01326718135225839</v>
       </c>
       <c r="E62">
-        <v>0.0519572456426303</v>
+        <v>-0.03818674064295666</v>
       </c>
       <c r="F62">
-        <v>0.07127242164554205</v>
+        <v>0.01201328011391108</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04773744559445373</v>
+        <v>-0.04260017920039617</v>
       </c>
       <c r="C63">
-        <v>-0.01799259695648095</v>
+        <v>0.004423820347470925</v>
       </c>
       <c r="D63">
-        <v>-0.01287138349253008</v>
+        <v>0.04615653892660935</v>
       </c>
       <c r="E63">
-        <v>-0.07606506939973297</v>
+        <v>-0.01404287628938711</v>
       </c>
       <c r="F63">
-        <v>-0.005999882588866134</v>
+        <v>0.01088930501473481</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.0964655524775548</v>
+        <v>-0.112106232031015</v>
       </c>
       <c r="C64">
-        <v>-0.06096378470052358</v>
+        <v>0.01203776852199998</v>
       </c>
       <c r="D64">
-        <v>-0.002776240458118144</v>
+        <v>0.03898453000639573</v>
       </c>
       <c r="E64">
-        <v>-0.08045135602021113</v>
+        <v>-0.01895498033219025</v>
       </c>
       <c r="F64">
-        <v>0.005725525377780541</v>
+        <v>0.01730997879874737</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1207693497635689</v>
+        <v>-0.142944939305197</v>
       </c>
       <c r="C65">
-        <v>-0.04588513979358039</v>
+        <v>0.03071380315860846</v>
       </c>
       <c r="D65">
-        <v>-0.01576709110970417</v>
+        <v>-0.04729679664955768</v>
       </c>
       <c r="E65">
-        <v>-0.09733175925801948</v>
+        <v>-0.003048438373173021</v>
       </c>
       <c r="F65">
-        <v>0.003331198753392651</v>
+        <v>0.04162294809930304</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1112088401239998</v>
+        <v>-0.1339509500278705</v>
       </c>
       <c r="C66">
-        <v>-0.1206575856140411</v>
+        <v>0.0171121920485407</v>
       </c>
       <c r="D66">
-        <v>-0.1171364203819161</v>
+        <v>0.1335150607922119</v>
       </c>
       <c r="E66">
-        <v>-0.1400952169864317</v>
+        <v>-0.05881595660404628</v>
       </c>
       <c r="F66">
-        <v>0.07589562920973389</v>
+        <v>0.0440322073498389</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.08073464009901969</v>
+        <v>-0.06567006121436444</v>
       </c>
       <c r="C67">
-        <v>-0.05944753834685691</v>
+        <v>0.004495553192336949</v>
       </c>
       <c r="D67">
-        <v>0.03577918937958575</v>
+        <v>0.05513290493187346</v>
       </c>
       <c r="E67">
-        <v>0.06169354881297649</v>
+        <v>-0.01936731837588712</v>
       </c>
       <c r="F67">
-        <v>0.1364737668563879</v>
+        <v>-0.04274415270098473</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.1284149543876535</v>
+        <v>-0.1111440086638427</v>
       </c>
       <c r="C68">
-        <v>0.2677691088748171</v>
+        <v>0.02135243127895153</v>
       </c>
       <c r="D68">
-        <v>-0.02819374809943508</v>
+        <v>-0.2719522313008595</v>
       </c>
       <c r="E68">
-        <v>-0.05272237161306685</v>
+        <v>0.08482789528898248</v>
       </c>
       <c r="F68">
-        <v>-0.003363681972075147</v>
+        <v>0.04925903296520345</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0437202431499938</v>
+        <v>-0.04067804230711172</v>
       </c>
       <c r="C69">
-        <v>-0.01875588293429448</v>
+        <v>0.001182825566134328</v>
       </c>
       <c r="D69">
-        <v>0.003171541473708883</v>
+        <v>0.009018302340572066</v>
       </c>
       <c r="E69">
-        <v>-0.0202573008966478</v>
+        <v>-0.02608374783762504</v>
       </c>
       <c r="F69">
-        <v>0.03108891517616898</v>
+        <v>-0.01594081617625484</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.05189796141073914</v>
+        <v>-0.06417733021127055</v>
       </c>
       <c r="C70">
-        <v>-0.05992900889265541</v>
+        <v>-0.02699044781683591</v>
       </c>
       <c r="D70">
-        <v>-0.02703911409170581</v>
+        <v>0.02105097301316163</v>
       </c>
       <c r="E70">
-        <v>-0.05739054856408501</v>
+        <v>0.0430752232644623</v>
       </c>
       <c r="F70">
-        <v>-0.003880487568649876</v>
+        <v>-0.3397050884058341</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1477943910480586</v>
+        <v>-0.1305544482960267</v>
       </c>
       <c r="C71">
-        <v>0.2748090549766563</v>
+        <v>0.0253913851876171</v>
       </c>
       <c r="D71">
-        <v>-0.02321717848059976</v>
+        <v>-0.2878153947943365</v>
       </c>
       <c r="E71">
-        <v>-0.0638172226239784</v>
+        <v>0.09243445860125825</v>
       </c>
       <c r="F71">
-        <v>0.006348097245182825</v>
+        <v>0.05062117717427418</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1253875532497139</v>
+        <v>-0.1377072904371792</v>
       </c>
       <c r="C72">
-        <v>-0.01942449241075742</v>
+        <v>0.02367274098796239</v>
       </c>
       <c r="D72">
-        <v>-0.0001335699052577373</v>
+        <v>0.006727938414473346</v>
       </c>
       <c r="E72">
-        <v>-0.04855082977652989</v>
+        <v>-0.04148723271093124</v>
       </c>
       <c r="F72">
-        <v>0.04302782625550594</v>
+        <v>0.02404388473280546</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2263141965789325</v>
+        <v>-0.2091518445548048</v>
       </c>
       <c r="C73">
-        <v>-0.1126689965215915</v>
+        <v>0.0114554758946136</v>
       </c>
       <c r="D73">
-        <v>-0.1223836242413837</v>
+        <v>0.02096320373012716</v>
       </c>
       <c r="E73">
-        <v>0.4534900406256905</v>
+        <v>-0.06935398514999576</v>
       </c>
       <c r="F73">
-        <v>0.2589193277954425</v>
+        <v>0.02424475673118532</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.0929669784466375</v>
+        <v>-0.09388709276338542</v>
       </c>
       <c r="C74">
-        <v>-0.08494439775690207</v>
+        <v>0.01178328117984974</v>
       </c>
       <c r="D74">
-        <v>0.0009056827915935182</v>
+        <v>0.02601707798901843</v>
       </c>
       <c r="E74">
-        <v>0.02120818349142362</v>
+        <v>-0.05113326499673739</v>
       </c>
       <c r="F74">
-        <v>0.1102563493540792</v>
+        <v>0.04116309181316878</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.09198464200425609</v>
+        <v>-0.1303131376781116</v>
       </c>
       <c r="C75">
-        <v>-0.06235819431117552</v>
+        <v>0.02599339215211446</v>
       </c>
       <c r="D75">
-        <v>-0.0007997093586757049</v>
+        <v>0.0360859451657163</v>
       </c>
       <c r="E75">
-        <v>0.004678904901562727</v>
+        <v>-0.05913405173102743</v>
       </c>
       <c r="F75">
-        <v>0.01132915957726742</v>
+        <v>0.008829619475636014</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.06920244095918385</v>
+        <v>-0.008634425226651643</v>
       </c>
       <c r="C76">
-        <v>-0.07157479383376691</v>
+        <v>0.001905562019794999</v>
       </c>
       <c r="D76">
-        <v>0.007763196710935295</v>
+        <v>0.003577397261839761</v>
       </c>
       <c r="E76">
-        <v>0.05436226314505276</v>
+        <v>-0.008880307751860819</v>
       </c>
       <c r="F76">
-        <v>0.02791391694428615</v>
+        <v>0.00310508347707886</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.06747350658329042</v>
+        <v>-0.08073252227218193</v>
       </c>
       <c r="C77">
-        <v>-0.02758666767438411</v>
+        <v>0.01192347282224041</v>
       </c>
       <c r="D77">
-        <v>-0.04010716462609155</v>
+        <v>0.1027081712259491</v>
       </c>
       <c r="E77">
-        <v>-0.1774648419936316</v>
+        <v>-0.03172417895943543</v>
       </c>
       <c r="F77">
-        <v>-0.1121140932635176</v>
+        <v>0.03551304229735175</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.174143509243109</v>
+        <v>-0.1098942470611846</v>
       </c>
       <c r="C78">
-        <v>-0.1649123617974288</v>
+        <v>0.04438428481466355</v>
       </c>
       <c r="D78">
-        <v>0.1606659582474523</v>
+        <v>0.1197089048714467</v>
       </c>
       <c r="E78">
-        <v>0.118250501772514</v>
+        <v>-0.09088484619318168</v>
       </c>
       <c r="F78">
-        <v>-0.6421474372118579</v>
+        <v>0.07287070978878725</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1290675007406892</v>
+        <v>-0.1626305766545545</v>
       </c>
       <c r="C79">
-        <v>-0.0756690266978339</v>
+        <v>0.02004369259387524</v>
       </c>
       <c r="D79">
-        <v>0.01364594529751988</v>
+        <v>0.02098494239265831</v>
       </c>
       <c r="E79">
-        <v>0.01371438185824447</v>
+        <v>-0.04888101074866433</v>
       </c>
       <c r="F79">
-        <v>0.04617205490437305</v>
+        <v>0.005234968618679007</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.07002500035753385</v>
+        <v>-0.08030883126156975</v>
       </c>
       <c r="C80">
-        <v>-0.04759281673356994</v>
+        <v>-0.001055455781597569</v>
       </c>
       <c r="D80">
-        <v>-0.0823249216735913</v>
+        <v>0.05886948826086024</v>
       </c>
       <c r="E80">
-        <v>-0.06483414038310137</v>
+        <v>-0.02824224835210423</v>
       </c>
       <c r="F80">
-        <v>0.03335137383554171</v>
+        <v>-0.01115693495966322</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1244665848794568</v>
+        <v>-0.1225189526181135</v>
       </c>
       <c r="C81">
-        <v>-0.05326306098189881</v>
+        <v>0.02972995118958417</v>
       </c>
       <c r="D81">
-        <v>0.008852714741067257</v>
+        <v>0.02275148157853233</v>
       </c>
       <c r="E81">
-        <v>-0.06119374208305683</v>
+        <v>-0.05836587267940724</v>
       </c>
       <c r="F81">
-        <v>0.02285677758629939</v>
+        <v>-0.002388691947750441</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1197422419518041</v>
+        <v>-0.1622138448467367</v>
       </c>
       <c r="C82">
-        <v>-0.05763273224639549</v>
+        <v>0.02015141871070208</v>
       </c>
       <c r="D82">
-        <v>-0.004672979660698771</v>
+        <v>0.01980667314072265</v>
       </c>
       <c r="E82">
-        <v>-0.003572577329066306</v>
+        <v>-0.03480911873043487</v>
       </c>
       <c r="F82">
-        <v>0.1035137957103763</v>
+        <v>0.05399117026388691</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.08261594487067682</v>
+        <v>-0.06662902588616902</v>
       </c>
       <c r="C83">
-        <v>-0.08669648133371212</v>
+        <v>0.00428525097050388</v>
       </c>
       <c r="D83">
-        <v>-0.0184625996205928</v>
+        <v>0.0473884349485285</v>
       </c>
       <c r="E83">
-        <v>-0.05395428162060973</v>
+        <v>-0.003793771708611796</v>
       </c>
       <c r="F83">
-        <v>0.0869941879760935</v>
+        <v>-0.03226256451286646</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.04915178191189312</v>
+        <v>-0.0608036878049996</v>
       </c>
       <c r="C84">
-        <v>0.06575100987924662</v>
+        <v>0.01197738771640973</v>
       </c>
       <c r="D84">
-        <v>-0.04588342011941784</v>
+        <v>0.0600093403877682</v>
       </c>
       <c r="E84">
-        <v>0.03589911342695924</v>
+        <v>0.004351338210832277</v>
       </c>
       <c r="F84">
-        <v>-0.2157806946241861</v>
+        <v>0.01521752537122823</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1188399979458584</v>
+        <v>-0.1378672437812694</v>
       </c>
       <c r="C85">
-        <v>-0.04752979220936255</v>
+        <v>0.0254137772396688</v>
       </c>
       <c r="D85">
-        <v>0.002012934168090473</v>
+        <v>0.01666064179681283</v>
       </c>
       <c r="E85">
-        <v>0.0156263061489523</v>
+        <v>-0.04033292626940483</v>
       </c>
       <c r="F85">
-        <v>0.05970975685599732</v>
+        <v>0.04013796313654078</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.09065168220874591</v>
+        <v>-0.0999218598283908</v>
       </c>
       <c r="C86">
-        <v>-0.006673630215607256</v>
+        <v>-0.006859757327355546</v>
       </c>
       <c r="D86">
-        <v>0.02721074739107863</v>
+        <v>0.01556186921903315</v>
       </c>
       <c r="E86">
-        <v>0.3125493328201204</v>
+        <v>-0.1326688171622707</v>
       </c>
       <c r="F86">
-        <v>-0.428981931917092</v>
+        <v>-0.8329164992755581</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1236477300969791</v>
+        <v>-0.1011231300489984</v>
       </c>
       <c r="C87">
-        <v>-0.07082810279631811</v>
+        <v>0.02624759767191322</v>
       </c>
       <c r="D87">
-        <v>0.01041538028857366</v>
+        <v>0.07189701600910398</v>
       </c>
       <c r="E87">
-        <v>-0.0678303306885519</v>
+        <v>0.05386357685836602</v>
       </c>
       <c r="F87">
-        <v>-0.02676390495418607</v>
+        <v>0.09206147848924121</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.05879790490109941</v>
+        <v>-0.06188847262865638</v>
       </c>
       <c r="C88">
-        <v>-0.06370923042113036</v>
+        <v>0.003412700296978878</v>
       </c>
       <c r="D88">
-        <v>-0.03204123022104348</v>
+        <v>0.055717650318346</v>
       </c>
       <c r="E88">
-        <v>-0.01603227137474067</v>
+        <v>-0.02607970841981249</v>
       </c>
       <c r="F88">
-        <v>0.02552778321818185</v>
+        <v>0.006562203282214351</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.2295097632860288</v>
+        <v>-0.1323703974832605</v>
       </c>
       <c r="C89">
-        <v>0.3719357246868422</v>
+        <v>0.004283475663032329</v>
       </c>
       <c r="D89">
-        <v>0.03757401017554377</v>
+        <v>-0.2717286089285662</v>
       </c>
       <c r="E89">
-        <v>0.01838117122419869</v>
+        <v>0.09052049388540413</v>
       </c>
       <c r="F89">
-        <v>-0.03398479708457469</v>
+        <v>0.03160421485690679</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1547031353020822</v>
+        <v>-0.142382587527478</v>
       </c>
       <c r="C90">
-        <v>0.2563478077133518</v>
+        <v>0.02079978425561848</v>
       </c>
       <c r="D90">
-        <v>-0.02066191916196997</v>
+        <v>-0.272774087647277</v>
       </c>
       <c r="E90">
-        <v>-0.01936578249487844</v>
+        <v>0.1030283096069053</v>
       </c>
       <c r="F90">
-        <v>0.01331528353157836</v>
+        <v>0.03608241905211442</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.07409118655986698</v>
+        <v>-0.1168355035062982</v>
       </c>
       <c r="C91">
-        <v>-0.06767858222461993</v>
+        <v>0.01597542642756286</v>
       </c>
       <c r="D91">
-        <v>0.00123530939091582</v>
+        <v>-0.002191272764408077</v>
       </c>
       <c r="E91">
-        <v>0.01350421036078059</v>
+        <v>-0.05898528998210344</v>
       </c>
       <c r="F91">
-        <v>-0.0001666901438867204</v>
+        <v>-0.02998156916592152</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1680469763034748</v>
+        <v>-0.1448093446323589</v>
       </c>
       <c r="C92">
-        <v>0.2955726411784393</v>
+        <v>0.01216218621557027</v>
       </c>
       <c r="D92">
-        <v>0.01873189142513882</v>
+        <v>-0.3060152402222217</v>
       </c>
       <c r="E92">
-        <v>-0.0531779588281418</v>
+        <v>0.09913561564444004</v>
       </c>
       <c r="F92">
-        <v>-0.03827757558682743</v>
+        <v>0.02746068768006054</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1705167201780289</v>
+        <v>-0.1459977453875492</v>
       </c>
       <c r="C93">
-        <v>0.3023596021312838</v>
+        <v>0.01746101632555405</v>
       </c>
       <c r="D93">
-        <v>-0.04950711886493431</v>
+        <v>-0.2776904758128768</v>
       </c>
       <c r="E93">
-        <v>-0.02553989218690061</v>
+        <v>0.07042677120442875</v>
       </c>
       <c r="F93">
-        <v>-0.01197552950042525</v>
+        <v>0.02698719603655308</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1179630871087927</v>
+        <v>-0.1337347889100694</v>
       </c>
       <c r="C94">
-        <v>-0.08094459816135267</v>
+        <v>0.02339317185795298</v>
       </c>
       <c r="D94">
-        <v>0.01526641957559521</v>
+        <v>0.04880432416857341</v>
       </c>
       <c r="E94">
-        <v>0.02799829230289039</v>
+        <v>-0.06139605056796342</v>
       </c>
       <c r="F94">
-        <v>0.04596550190619769</v>
+        <v>0.02716192709976033</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.137190690030504</v>
+        <v>-0.1274541733637679</v>
       </c>
       <c r="C95">
-        <v>-0.06571823822539238</v>
+        <v>0.006383803446393529</v>
       </c>
       <c r="D95">
-        <v>0.008726266294529985</v>
+        <v>0.08950310614142505</v>
       </c>
       <c r="E95">
-        <v>-0.03606682141897116</v>
+        <v>-0.04049022957284243</v>
       </c>
       <c r="F95">
-        <v>-0.1365587503849862</v>
+        <v>-0.01131013701835444</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09455900031959809</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>-0.9894235682844162</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>-0.01412157622682094</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06035709041934866</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>0.05015248501921158</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1205221623476855</v>
+        <v>-0.1878409109125661</v>
       </c>
       <c r="C97">
-        <v>0.03033247951544531</v>
+        <v>-0.01249487619368238</v>
       </c>
       <c r="D97">
-        <v>0.02458230764238721</v>
+        <v>-0.01139100197552742</v>
       </c>
       <c r="E97">
-        <v>-0.3028900238009716</v>
+        <v>-0.01314037187731691</v>
       </c>
       <c r="F97">
-        <v>0.1516432671588632</v>
+        <v>-0.1706019470461879</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.258059240030972</v>
+        <v>-0.2070787375593972</v>
       </c>
       <c r="C98">
-        <v>-0.102859574032068</v>
+        <v>0.006977843329666958</v>
       </c>
       <c r="D98">
-        <v>0.07767073154866891</v>
+        <v>0.01383117327506088</v>
       </c>
       <c r="E98">
-        <v>0.2318899218179966</v>
+        <v>0.0884641163735238</v>
       </c>
       <c r="F98">
-        <v>0.09685633335762867</v>
+        <v>-0.1372024069092595</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.07164167739249958</v>
+        <v>-0.05791020069897687</v>
       </c>
       <c r="C99">
-        <v>-0.06050034984524247</v>
+        <v>-0.002923744096066483</v>
       </c>
       <c r="D99">
-        <v>0.01120413367515294</v>
+        <v>0.03347109947532135</v>
       </c>
       <c r="E99">
-        <v>0.03300754825533339</v>
+        <v>-0.026621539589285</v>
       </c>
       <c r="F99">
-        <v>0.009888026502377321</v>
+        <v>0.004346463720816972</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1221049259676902</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>-0.04789392649577933</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>0.3217623646505374</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9065577377929385</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>-0.05960656722865407</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.03960107659139488</v>
+        <v>-0.02711703125577211</v>
       </c>
       <c r="C101">
-        <v>-0.03404499732167515</v>
+        <v>0.009177930283663666</v>
       </c>
       <c r="D101">
-        <v>-0.01689506731582352</v>
+        <v>0.02814961407978271</v>
       </c>
       <c r="E101">
-        <v>-0.0515498408304081</v>
+        <v>-0.008135906210682652</v>
       </c>
       <c r="F101">
-        <v>-0.03285950758080957</v>
+        <v>-0.008461174024221091</v>
       </c>
     </row>
     <row r="102" spans="1:6">
